--- a/src/test/excel/testdata.xlsx
+++ b/src/test/excel/testdata.xlsx
@@ -13,9 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="SignInTest" sheetId="1" r:id="rId1"/>
-    <sheet name="FlightSearchTest" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Y</t>
   </si>
@@ -76,13 +75,34 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Jasveer23@gmail.com</t>
+  </si>
+  <si>
+    <t>hello@123</t>
+  </si>
+  <si>
+    <t>hllo</t>
+  </si>
+  <si>
+    <t>gh7</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>67h</t>
+  </si>
+  <si>
+    <t>ytrt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +117,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <u val="single"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,10 +152,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,116 +441,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.8555" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A2" display="Jasveer23@gmail.com" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43081</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>